--- a/Code/Results/Cases/Case_2_150/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_150/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000184850493274</v>
+        <v>1.029925456385346</v>
       </c>
       <c r="D2">
-        <v>1.021942192647116</v>
+        <v>1.03844555223394</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.021670789259827</v>
+        <v>1.045380731931067</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047652488642153</v>
+        <v>1.034051701522458</v>
       </c>
       <c r="J2">
-        <v>1.02236003412021</v>
+        <v>1.035069535042062</v>
       </c>
       <c r="K2">
-        <v>1.0331040726942</v>
+        <v>1.041233564203401</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.032836250631435</v>
+        <v>1.048149133117213</v>
       </c>
       <c r="N2">
-        <v>1.023811902634996</v>
+        <v>1.036539452505985</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005061275369623</v>
+        <v>1.030929570257467</v>
       </c>
       <c r="D3">
-        <v>1.025796898869159</v>
+        <v>1.039245836731627</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.026249015807629</v>
+        <v>1.046369565886894</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049115182811796</v>
+        <v>1.034254408367186</v>
       </c>
       <c r="J3">
-        <v>1.025414909447123</v>
+        <v>1.035714607601175</v>
       </c>
       <c r="K3">
-        <v>1.036110009742091</v>
+        <v>1.041843889275786</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.036556700286147</v>
+        <v>1.048948933958593</v>
       </c>
       <c r="N3">
-        <v>1.026871116235272</v>
+        <v>1.037185441142094</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008144362149817</v>
+        <v>1.031579122940596</v>
       </c>
       <c r="D4">
-        <v>1.028233718585884</v>
+        <v>1.039763104252049</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.029147184810549</v>
+        <v>1.047009344305518</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050024148734515</v>
+        <v>1.034383559984822</v>
       </c>
       <c r="J4">
-        <v>1.027342004072926</v>
+        <v>1.036131260216288</v>
       </c>
       <c r="K4">
-        <v>1.038002923082643</v>
+        <v>1.042237589546878</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.03890610949124</v>
+        <v>1.049465782655221</v>
       </c>
       <c r="N4">
-        <v>1.028800947556485</v>
+        <v>1.037602685451712</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009423845925666</v>
+        <v>1.031852152568096</v>
       </c>
       <c r="D5">
-        <v>1.029244867277564</v>
+        <v>1.03998042619295</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.030350747007919</v>
+        <v>1.047278291324446</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050397515973224</v>
+        <v>1.034437372845629</v>
       </c>
       <c r="J5">
-        <v>1.028140672772913</v>
+        <v>1.036306240371293</v>
       </c>
       <c r="K5">
-        <v>1.038786610962009</v>
+        <v>1.042402808210649</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.039880387571735</v>
+        <v>1.049682903381083</v>
       </c>
       <c r="N5">
-        <v>1.029600750457633</v>
+        <v>1.037777914098607</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009637719240263</v>
+        <v>1.031897992957699</v>
       </c>
       <c r="D6">
-        <v>1.029413877121913</v>
+        <v>1.040016907425374</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.030551976397632</v>
+        <v>1.047323447764215</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050459698163399</v>
+        <v>1.034446379954266</v>
       </c>
       <c r="J6">
-        <v>1.028274110551992</v>
+        <v>1.036335609704951</v>
       </c>
       <c r="K6">
-        <v>1.038917497314439</v>
+        <v>1.04243053195454</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.040043199600826</v>
+        <v>1.04971934936024</v>
       </c>
       <c r="N6">
-        <v>1.029734377733665</v>
+        <v>1.037807325140088</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008161523235751</v>
+        <v>1.031582771342337</v>
       </c>
       <c r="D7">
-        <v>1.028247281236077</v>
+        <v>1.039766008659146</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.029163324420818</v>
+        <v>1.047012938051819</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050029171839436</v>
+        <v>1.03438428093136</v>
       </c>
       <c r="J7">
-        <v>1.027352720531064</v>
+        <v>1.036133599019935</v>
       </c>
       <c r="K7">
-        <v>1.038013441778478</v>
+        <v>1.042239798358611</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.038919179951967</v>
+        <v>1.049468684472203</v>
       </c>
       <c r="N7">
-        <v>1.028811679233222</v>
+        <v>1.037605027576728</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001848237674062</v>
+        <v>1.03026483774921</v>
       </c>
       <c r="D8">
-        <v>1.023257085290009</v>
+        <v>1.038716129653985</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.023231668812197</v>
+        <v>1.045714925690202</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048154709709966</v>
+        <v>1.034120623811555</v>
       </c>
       <c r="J8">
-        <v>1.023402961996614</v>
+        <v>1.035287695860554</v>
       </c>
       <c r="K8">
-        <v>1.034130976862953</v>
+        <v>1.041440078816684</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.034105885390909</v>
+        <v>1.04841956912492</v>
       </c>
       <c r="N8">
-        <v>1.02485631158861</v>
+        <v>1.036757923137834</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9901381189673577</v>
+        <v>1.027941127264206</v>
       </c>
       <c r="D9">
-        <v>1.014001838427893</v>
+        <v>1.036861779371546</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.012260730644452</v>
+        <v>1.043427206618803</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044554183855732</v>
+        <v>1.033640628557577</v>
       </c>
       <c r="J9">
-        <v>1.016043997425771</v>
+        <v>1.033791363120888</v>
       </c>
       <c r="K9">
-        <v>1.026871758004468</v>
+        <v>1.040021548474542</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.025157969436943</v>
+        <v>1.046565744739352</v>
       </c>
       <c r="N9">
-        <v>1.017486896443991</v>
+        <v>1.035259465434046</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9818901483768342</v>
+        <v>1.026391088269272</v>
       </c>
       <c r="D10">
-        <v>1.007488057771623</v>
+        <v>1.035622681834781</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.00455824755611</v>
+        <v>1.041901790533382</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041938264677953</v>
+        <v>1.033310306649179</v>
       </c>
       <c r="J10">
-        <v>1.010841175994034</v>
+        <v>1.032789970615905</v>
       </c>
       <c r="K10">
-        <v>1.021723416507229</v>
+        <v>1.039069629064398</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.018845686282139</v>
+        <v>1.04532643438705</v>
       </c>
       <c r="N10">
-        <v>1.012276686409048</v>
+        <v>1.034256650836844</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.978202290712062</v>
+        <v>1.025719690889587</v>
       </c>
       <c r="D11">
-        <v>1.00457790641509</v>
+        <v>1.035085468643432</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.001121060770029</v>
+        <v>1.04124121111883</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040750581448599</v>
+        <v>1.033164829959557</v>
       </c>
       <c r="J11">
-        <v>1.008510861468884</v>
+        <v>1.032355450748251</v>
       </c>
       <c r="K11">
-        <v>1.019414003450181</v>
+        <v>1.038655965833062</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.016021866449034</v>
+        <v>1.044788992765616</v>
       </c>
       <c r="N11">
-        <v>1.009943062569983</v>
+        <v>1.033821513901139</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9768138674141716</v>
+        <v>1.025470270764367</v>
       </c>
       <c r="D12">
-        <v>1.003482724299241</v>
+        <v>1.034885822847788</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9998281085094851</v>
+        <v>1.04099583329396</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040300806398086</v>
+        <v>1.033110426443823</v>
       </c>
       <c r="J12">
-        <v>1.007632986518548</v>
+        <v>1.032193914213077</v>
       </c>
       <c r="K12">
-        <v>1.018543503601436</v>
+        <v>1.038502091599811</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.014958602430046</v>
+        <v>1.044589241423623</v>
       </c>
       <c r="N12">
-        <v>1.009063940936523</v>
+        <v>1.033659747965556</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.977112548701036</v>
+        <v>1.025523773734786</v>
       </c>
       <c r="D13">
-        <v>1.003718300948875</v>
+        <v>1.034928652104443</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.000106200915195</v>
+        <v>1.041048468080762</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040397680652173</v>
+        <v>1.033122112784313</v>
       </c>
       <c r="J13">
-        <v>1.00782186103384</v>
+        <v>1.03222857052156</v>
       </c>
       <c r="K13">
-        <v>1.018730813455347</v>
+        <v>1.038535108152121</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.015187339491979</v>
+        <v>1.044632094260482</v>
       </c>
       <c r="N13">
-        <v>1.009253083675291</v>
+        <v>1.033694453489973</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9780879090734358</v>
+        <v>1.025699074423304</v>
       </c>
       <c r="D14">
-        <v>1.004487673027338</v>
+        <v>1.035068967914339</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.001014521496809</v>
+        <v>1.041220928296902</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040713580848824</v>
+        <v>1.033160340432544</v>
       </c>
       <c r="J14">
-        <v>1.008438550788508</v>
+        <v>1.03234210087117</v>
       </c>
       <c r="K14">
-        <v>1.019342310231722</v>
+        <v>1.038643251052706</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.015934274536852</v>
+        <v>1.044772483735529</v>
       </c>
       <c r="N14">
-        <v>1.009870649200147</v>
+        <v>1.033808145065702</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9786863632816827</v>
+        <v>1.025807078553304</v>
       </c>
       <c r="D15">
-        <v>1.004959800373555</v>
+        <v>1.035155407764697</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.001571988978489</v>
+        <v>1.041327185519043</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040907064417645</v>
+        <v>1.033183845128316</v>
       </c>
       <c r="J15">
-        <v>1.008816864348648</v>
+        <v>1.03241203258519</v>
       </c>
       <c r="K15">
-        <v>1.019717373214112</v>
+        <v>1.038709852152688</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.016392557542916</v>
+        <v>1.044858966224195</v>
       </c>
       <c r="N15">
-        <v>1.010249500008935</v>
+        <v>1.033878176090777</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9821323547207111</v>
+        <v>1.026435642048575</v>
       </c>
       <c r="D16">
-        <v>1.007679243216859</v>
+        <v>1.035658320721248</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.004784138115563</v>
+        <v>1.041945629697768</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042015899214631</v>
+        <v>1.033319909972586</v>
       </c>
       <c r="J16">
-        <v>1.010994144604833</v>
+        <v>1.032818789111211</v>
       </c>
       <c r="K16">
-        <v>1.021874942579645</v>
+        <v>1.039097051473969</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.019031121908093</v>
+        <v>1.045362085543363</v>
       </c>
       <c r="N16">
-        <v>1.012429872252821</v>
+        <v>1.034285510257721</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9842620158140682</v>
+        <v>1.026829864246082</v>
       </c>
       <c r="D17">
-        <v>1.009360563894954</v>
+        <v>1.035973604255818</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.006771116713348</v>
+        <v>1.042333546511425</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042696480610541</v>
+        <v>1.033404605479501</v>
       </c>
       <c r="J17">
-        <v>1.01233871091498</v>
+        <v>1.033073693200815</v>
       </c>
       <c r="K17">
-        <v>1.023206435248572</v>
+        <v>1.039339536565607</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.020661456260906</v>
+        <v>1.0456774618801</v>
       </c>
       <c r="N17">
-        <v>1.013776348001353</v>
+        <v>1.034540776340369</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9854930557482348</v>
+        <v>1.027059786142235</v>
       </c>
       <c r="D18">
-        <v>1.010332654745437</v>
+        <v>1.036157438562567</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.007920315112038</v>
+        <v>1.042559805605105</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043088173761516</v>
+        <v>1.033453770993296</v>
       </c>
       <c r="J18">
-        <v>1.013115547026868</v>
+        <v>1.033222286595855</v>
       </c>
       <c r="K18">
-        <v>1.023975385192131</v>
+        <v>1.039480831590566</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.021603719892423</v>
+        <v>1.045861337182633</v>
       </c>
       <c r="N18">
-        <v>1.014554287309624</v>
+        <v>1.034689580755075</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9859109482496595</v>
+        <v>1.027138179968634</v>
       </c>
       <c r="D19">
-        <v>1.010662676690761</v>
+        <v>1.036220110224434</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.008310530922805</v>
+        <v>1.042636953040781</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043220846078385</v>
+        <v>1.03347049513207</v>
       </c>
       <c r="J19">
-        <v>1.013379187416837</v>
+        <v>1.033272938195225</v>
       </c>
       <c r="K19">
-        <v>1.024236291971707</v>
+        <v>1.039528985371204</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.021923556962774</v>
+        <v>1.045924020602024</v>
       </c>
       <c r="N19">
-        <v>1.014818302099187</v>
+        <v>1.034740304285525</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9840346848202017</v>
+        <v>1.026787570133261</v>
       </c>
       <c r="D20">
-        <v>1.009181068390273</v>
+        <v>1.03593978406026</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.006558949884825</v>
+        <v>1.042291927348751</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042624009136876</v>
+        <v>1.033395542855148</v>
       </c>
       <c r="J20">
-        <v>1.012195224417006</v>
+        <v>1.033046353488951</v>
       </c>
       <c r="K20">
-        <v>1.023064378271374</v>
+        <v>1.039313534938683</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.020487440260908</v>
+        <v>1.045643633087875</v>
       </c>
       <c r="N20">
-        <v>1.013632657736093</v>
+        <v>1.034513397802979</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9778012121531657</v>
+        <v>1.025647453658748</v>
       </c>
       <c r="D21">
-        <v>1.004261511094894</v>
+        <v>1.035027651185837</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.000747499368379</v>
+        <v>1.041170143312804</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040620796992149</v>
+        <v>1.033149093470994</v>
       </c>
       <c r="J21">
-        <v>1.008257295884199</v>
+        <v>1.032308672779205</v>
       </c>
       <c r="K21">
-        <v>1.019162595127209</v>
+        <v>1.038611411769112</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.015714723970388</v>
+        <v>1.044731145887603</v>
       </c>
       <c r="N21">
-        <v>1.009689136893083</v>
+        <v>1.033774669502011</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9737738209205069</v>
+        <v>1.024930424758865</v>
       </c>
       <c r="D22">
-        <v>1.001085685522859</v>
+        <v>1.034453573591312</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9969992144684177</v>
+        <v>1.040464780036992</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039311246234058</v>
+        <v>1.032992017808138</v>
       </c>
       <c r="J22">
-        <v>1.005709879829056</v>
+        <v>1.031844073957932</v>
       </c>
       <c r="K22">
-        <v>1.016635665408894</v>
+        <v>1.038168678954989</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.012630352818175</v>
+        <v>1.044156725657341</v>
       </c>
       <c r="N22">
-        <v>1.007138103214949</v>
+        <v>1.033309410897122</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.975919459723225</v>
+        <v>1.025310553636935</v>
       </c>
       <c r="D23">
-        <v>1.002777358218446</v>
+        <v>1.034757958082823</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9989955219198249</v>
+        <v>1.040838711352088</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040010335303438</v>
+        <v>1.033075487722299</v>
       </c>
       <c r="J23">
-        <v>1.007067322075264</v>
+        <v>1.032090441353472</v>
       </c>
       <c r="K23">
-        <v>1.017982454208086</v>
+        <v>1.038403501192468</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.014273630460145</v>
+        <v>1.044461303221583</v>
       </c>
       <c r="N23">
-        <v>1.008497473184847</v>
+        <v>1.033556128162622</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9841374403037322</v>
+        <v>1.026806681087761</v>
       </c>
       <c r="D24">
-        <v>1.009262201188585</v>
+        <v>1.035955066152411</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.006654849075651</v>
+        <v>1.042310733276017</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042656772161991</v>
+        <v>1.03339963859399</v>
       </c>
       <c r="J24">
-        <v>1.012260082691654</v>
+        <v>1.033058707399268</v>
       </c>
       <c r="K24">
-        <v>1.023128591413381</v>
+        <v>1.039325284394671</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.020566097377184</v>
+        <v>1.045658919105032</v>
       </c>
       <c r="N24">
-        <v>1.01369760811693</v>
+        <v>1.034525769257265</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9932395184342079</v>
+        <v>1.028542020812752</v>
       </c>
       <c r="D25">
-        <v>1.016452534700671</v>
+        <v>1.037341681550372</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.015162362792011</v>
+        <v>1.044018687040146</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045521789241166</v>
+        <v>1.033766540683544</v>
       </c>
       <c r="J25">
-        <v>1.017996561568975</v>
+        <v>1.034178879093428</v>
       </c>
       <c r="K25">
-        <v>1.0288007042395</v>
+        <v>1.04038937363632</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.027529775536807</v>
+        <v>1.047045609375302</v>
       </c>
       <c r="N25">
-        <v>1.01944223345224</v>
+        <v>1.035647531723716</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_150/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_150/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029925456385346</v>
+        <v>1.000184850493274</v>
       </c>
       <c r="D2">
-        <v>1.03844555223394</v>
+        <v>1.021942192647116</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.045380731931067</v>
+        <v>1.021670789259826</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034051701522458</v>
+        <v>1.047652488642154</v>
       </c>
       <c r="J2">
-        <v>1.035069535042062</v>
+        <v>1.02236003412021</v>
       </c>
       <c r="K2">
-        <v>1.041233564203401</v>
+        <v>1.0331040726942</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.048149133117213</v>
+        <v>1.032836250631434</v>
       </c>
       <c r="N2">
-        <v>1.036539452505985</v>
+        <v>1.023811902634995</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030929570257467</v>
+        <v>1.005061275369623</v>
       </c>
       <c r="D3">
-        <v>1.039245836731627</v>
+        <v>1.025796898869159</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.046369565886894</v>
+        <v>1.026249015807629</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034254408367186</v>
+        <v>1.049115182811796</v>
       </c>
       <c r="J3">
-        <v>1.035714607601175</v>
+        <v>1.025414909447123</v>
       </c>
       <c r="K3">
-        <v>1.041843889275786</v>
+        <v>1.03611000974209</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.048948933958593</v>
+        <v>1.036556700286147</v>
       </c>
       <c r="N3">
-        <v>1.037185441142094</v>
+        <v>1.026871116235272</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031579122940596</v>
+        <v>1.008144362149817</v>
       </c>
       <c r="D4">
-        <v>1.039763104252049</v>
+        <v>1.028233718585883</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.047009344305518</v>
+        <v>1.029147184810548</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034383559984822</v>
+        <v>1.050024148734514</v>
       </c>
       <c r="J4">
-        <v>1.036131260216288</v>
+        <v>1.027342004072926</v>
       </c>
       <c r="K4">
-        <v>1.042237589546878</v>
+        <v>1.038002923082642</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.049465782655221</v>
+        <v>1.038906109491239</v>
       </c>
       <c r="N4">
-        <v>1.037602685451712</v>
+        <v>1.028800947556484</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031852152568096</v>
+        <v>1.009423845925665</v>
       </c>
       <c r="D5">
-        <v>1.03998042619295</v>
+        <v>1.029244867277563</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.047278291324446</v>
+        <v>1.030350747007918</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034437372845629</v>
+        <v>1.050397515973223</v>
       </c>
       <c r="J5">
-        <v>1.036306240371293</v>
+        <v>1.028140672772911</v>
       </c>
       <c r="K5">
-        <v>1.042402808210649</v>
+        <v>1.038786610962008</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.049682903381083</v>
+        <v>1.039880387571734</v>
       </c>
       <c r="N5">
-        <v>1.037777914098607</v>
+        <v>1.029600750457632</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031897992957699</v>
+        <v>1.009637719240263</v>
       </c>
       <c r="D6">
-        <v>1.040016907425374</v>
+        <v>1.029413877121914</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.047323447764215</v>
+        <v>1.030551976397633</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034446379954266</v>
+        <v>1.0504596981634</v>
       </c>
       <c r="J6">
-        <v>1.036335609704951</v>
+        <v>1.028274110551993</v>
       </c>
       <c r="K6">
-        <v>1.04243053195454</v>
+        <v>1.038917497314439</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.04971934936024</v>
+        <v>1.040043199600827</v>
       </c>
       <c r="N6">
-        <v>1.037807325140088</v>
+        <v>1.029734377733666</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031582771342337</v>
+        <v>1.008161523235752</v>
       </c>
       <c r="D7">
-        <v>1.039766008659146</v>
+        <v>1.028247281236078</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.047012938051819</v>
+        <v>1.029163324420819</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03438428093136</v>
+        <v>1.050029171839437</v>
       </c>
       <c r="J7">
-        <v>1.036133599019935</v>
+        <v>1.027352720531065</v>
       </c>
       <c r="K7">
-        <v>1.042239798358611</v>
+        <v>1.038013441778479</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.049468684472203</v>
+        <v>1.038919179951968</v>
       </c>
       <c r="N7">
-        <v>1.037605027576728</v>
+        <v>1.028811679233223</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03026483774921</v>
+        <v>1.001848237674062</v>
       </c>
       <c r="D8">
-        <v>1.038716129653985</v>
+        <v>1.023257085290009</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.045714925690202</v>
+        <v>1.023231668812197</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034120623811555</v>
+        <v>1.048154709709967</v>
       </c>
       <c r="J8">
-        <v>1.035287695860554</v>
+        <v>1.023402961996615</v>
       </c>
       <c r="K8">
-        <v>1.041440078816684</v>
+        <v>1.034130976862953</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.04841956912492</v>
+        <v>1.034105885390909</v>
       </c>
       <c r="N8">
-        <v>1.036757923137834</v>
+        <v>1.02485631158861</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027941127264206</v>
+        <v>0.9901381189673575</v>
       </c>
       <c r="D9">
-        <v>1.036861779371546</v>
+        <v>1.014001838427893</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.043427206618803</v>
+        <v>1.012260730644451</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033640628557577</v>
+        <v>1.044554183855732</v>
       </c>
       <c r="J9">
-        <v>1.033791363120888</v>
+        <v>1.016043997425771</v>
       </c>
       <c r="K9">
-        <v>1.040021548474542</v>
+        <v>1.026871758004468</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.046565744739352</v>
+        <v>1.025157969436943</v>
       </c>
       <c r="N9">
-        <v>1.035259465434046</v>
+        <v>1.017486896443991</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026391088269272</v>
+        <v>0.9818901483768351</v>
       </c>
       <c r="D10">
-        <v>1.035622681834781</v>
+        <v>1.007488057771623</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.041901790533382</v>
+        <v>1.004558247556111</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033310306649179</v>
+        <v>1.041938264677954</v>
       </c>
       <c r="J10">
-        <v>1.032789970615905</v>
+        <v>1.010841175994035</v>
       </c>
       <c r="K10">
-        <v>1.039069629064398</v>
+        <v>1.02172341650723</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.04532643438705</v>
+        <v>1.01884568628214</v>
       </c>
       <c r="N10">
-        <v>1.034256650836844</v>
+        <v>1.012276686409049</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025719690889587</v>
+        <v>0.9782022907120621</v>
       </c>
       <c r="D11">
-        <v>1.035085468643432</v>
+        <v>1.00457790641509</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.04124121111883</v>
+        <v>1.001121060770028</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033164829959557</v>
+        <v>1.040750581448599</v>
       </c>
       <c r="J11">
-        <v>1.032355450748251</v>
+        <v>1.008510861468884</v>
       </c>
       <c r="K11">
-        <v>1.038655965833062</v>
+        <v>1.019414003450181</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.044788992765616</v>
+        <v>1.016021866449034</v>
       </c>
       <c r="N11">
-        <v>1.033821513901139</v>
+        <v>1.009943062569983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025470270764367</v>
+        <v>0.9768138674141713</v>
       </c>
       <c r="D12">
-        <v>1.034885822847788</v>
+        <v>1.003482724299241</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.04099583329396</v>
+        <v>0.9998281085094846</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033110426443823</v>
+        <v>1.040300806398086</v>
       </c>
       <c r="J12">
-        <v>1.032193914213077</v>
+        <v>1.007632986518547</v>
       </c>
       <c r="K12">
-        <v>1.038502091599811</v>
+        <v>1.018543503601436</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.044589241423623</v>
+        <v>1.014958602430046</v>
       </c>
       <c r="N12">
-        <v>1.033659747965556</v>
+        <v>1.009063940936522</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025523773734786</v>
+        <v>0.977112548701035</v>
       </c>
       <c r="D13">
-        <v>1.034928652104443</v>
+        <v>1.003718300948874</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.041048468080762</v>
+        <v>1.000106200915194</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033122112784313</v>
+        <v>1.040397680652172</v>
       </c>
       <c r="J13">
-        <v>1.03222857052156</v>
+        <v>1.007821861033839</v>
       </c>
       <c r="K13">
-        <v>1.038535108152121</v>
+        <v>1.018730813455345</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.044632094260482</v>
+        <v>1.015187339491977</v>
       </c>
       <c r="N13">
-        <v>1.033694453489973</v>
+        <v>1.00925308367529</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025699074423304</v>
+        <v>0.978087909073437</v>
       </c>
       <c r="D14">
-        <v>1.035068967914339</v>
+        <v>1.004487673027338</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.041220928296902</v>
+        <v>1.00101452149681</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033160340432544</v>
+        <v>1.040713580848824</v>
       </c>
       <c r="J14">
-        <v>1.03234210087117</v>
+        <v>1.008438550788509</v>
       </c>
       <c r="K14">
-        <v>1.038643251052706</v>
+        <v>1.019342310231723</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.044772483735529</v>
+        <v>1.015934274536853</v>
       </c>
       <c r="N14">
-        <v>1.033808145065702</v>
+        <v>1.009870649200147</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025807078553304</v>
+        <v>0.9786863632816828</v>
       </c>
       <c r="D15">
-        <v>1.035155407764697</v>
+        <v>1.004959800373555</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.041327185519043</v>
+        <v>1.001571988978489</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033183845128316</v>
+        <v>1.040907064417645</v>
       </c>
       <c r="J15">
-        <v>1.03241203258519</v>
+        <v>1.008816864348649</v>
       </c>
       <c r="K15">
-        <v>1.038709852152688</v>
+        <v>1.019717373214113</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.044858966224195</v>
+        <v>1.016392557542917</v>
       </c>
       <c r="N15">
-        <v>1.033878176090777</v>
+        <v>1.010249500008936</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026435642048575</v>
+        <v>0.9821323547207119</v>
       </c>
       <c r="D16">
-        <v>1.035658320721248</v>
+        <v>1.00767924321686</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.041945629697768</v>
+        <v>1.004784138115564</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033319909972586</v>
+        <v>1.042015899214632</v>
       </c>
       <c r="J16">
-        <v>1.032818789111211</v>
+        <v>1.010994144604834</v>
       </c>
       <c r="K16">
-        <v>1.039097051473969</v>
+        <v>1.021874942579645</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.045362085543363</v>
+        <v>1.019031121908094</v>
       </c>
       <c r="N16">
-        <v>1.034285510257721</v>
+        <v>1.012429872252822</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026829864246082</v>
+        <v>0.9842620158140697</v>
       </c>
       <c r="D17">
-        <v>1.035973604255818</v>
+        <v>1.009360563894955</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.042333546511425</v>
+        <v>1.006771116713349</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033404605479501</v>
+        <v>1.042696480610542</v>
       </c>
       <c r="J17">
-        <v>1.033073693200815</v>
+        <v>1.012338710914982</v>
       </c>
       <c r="K17">
-        <v>1.039339536565607</v>
+        <v>1.023206435248574</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.0456774618801</v>
+        <v>1.020661456260908</v>
       </c>
       <c r="N17">
-        <v>1.034540776340369</v>
+        <v>1.013776348001354</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027059786142235</v>
+        <v>0.9854930557482352</v>
       </c>
       <c r="D18">
-        <v>1.036157438562567</v>
+        <v>1.010332654745437</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.042559805605105</v>
+        <v>1.007920315112039</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033453770993296</v>
+        <v>1.043088173761515</v>
       </c>
       <c r="J18">
-        <v>1.033222286595855</v>
+        <v>1.013115547026869</v>
       </c>
       <c r="K18">
-        <v>1.039480831590566</v>
+        <v>1.023975385192132</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.045861337182633</v>
+        <v>1.021603719892424</v>
       </c>
       <c r="N18">
-        <v>1.034689580755075</v>
+        <v>1.014554287309624</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027138179968634</v>
+        <v>0.9859109482496597</v>
       </c>
       <c r="D19">
-        <v>1.036220110224434</v>
+        <v>1.010662676690761</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.042636953040781</v>
+        <v>1.008310530922805</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03347049513207</v>
+        <v>1.043220846078385</v>
       </c>
       <c r="J19">
-        <v>1.033272938195225</v>
+        <v>1.013379187416838</v>
       </c>
       <c r="K19">
-        <v>1.039528985371204</v>
+        <v>1.024236291971707</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.045924020602024</v>
+        <v>1.021923556962774</v>
       </c>
       <c r="N19">
-        <v>1.034740304285525</v>
+        <v>1.014818302099187</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026787570133261</v>
+        <v>0.9840346848202016</v>
       </c>
       <c r="D20">
-        <v>1.03593978406026</v>
+        <v>1.009181068390273</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.042291927348751</v>
+        <v>1.006558949884824</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033395542855148</v>
+        <v>1.042624009136876</v>
       </c>
       <c r="J20">
-        <v>1.033046353488951</v>
+        <v>1.012195224417006</v>
       </c>
       <c r="K20">
-        <v>1.039313534938683</v>
+        <v>1.023064378271374</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.045643633087875</v>
+        <v>1.020487440260907</v>
       </c>
       <c r="N20">
-        <v>1.034513397802979</v>
+        <v>1.013632657736093</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025647453658748</v>
+        <v>0.9778012121531672</v>
       </c>
       <c r="D21">
-        <v>1.035027651185837</v>
+        <v>1.004261511094895</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.041170143312804</v>
+        <v>1.00074749936838</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033149093470994</v>
+        <v>1.040620796992149</v>
       </c>
       <c r="J21">
-        <v>1.032308672779205</v>
+        <v>1.0082572958842</v>
       </c>
       <c r="K21">
-        <v>1.038611411769112</v>
+        <v>1.01916259512721</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.044731145887603</v>
+        <v>1.015714723970389</v>
       </c>
       <c r="N21">
-        <v>1.033774669502011</v>
+        <v>1.009689136893084</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024930424758865</v>
+        <v>0.9737738209205065</v>
       </c>
       <c r="D22">
-        <v>1.034453573591312</v>
+        <v>1.001085685522859</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.040464780036992</v>
+        <v>0.9969992144684173</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032992017808138</v>
+        <v>1.039311246234057</v>
       </c>
       <c r="J22">
-        <v>1.031844073957932</v>
+        <v>1.005709879829056</v>
       </c>
       <c r="K22">
-        <v>1.038168678954989</v>
+        <v>1.016635665408894</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.044156725657341</v>
+        <v>1.012630352818175</v>
       </c>
       <c r="N22">
-        <v>1.033309410897122</v>
+        <v>1.007138103214949</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025310553636935</v>
+        <v>0.9759194597232246</v>
       </c>
       <c r="D23">
-        <v>1.034757958082823</v>
+        <v>1.002777358218446</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.040838711352088</v>
+        <v>0.9989955219198244</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033075487722299</v>
+        <v>1.040010335303438</v>
       </c>
       <c r="J23">
-        <v>1.032090441353472</v>
+        <v>1.007067322075264</v>
       </c>
       <c r="K23">
-        <v>1.038403501192468</v>
+        <v>1.017982454208086</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.044461303221583</v>
+        <v>1.014273630460145</v>
       </c>
       <c r="N23">
-        <v>1.033556128162622</v>
+        <v>1.008497473184846</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026806681087761</v>
+        <v>0.9841374403037322</v>
       </c>
       <c r="D24">
-        <v>1.035955066152411</v>
+        <v>1.009262201188585</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.042310733276017</v>
+        <v>1.006654849075651</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03339963859399</v>
+        <v>1.042656772161991</v>
       </c>
       <c r="J24">
-        <v>1.033058707399268</v>
+        <v>1.012260082691654</v>
       </c>
       <c r="K24">
-        <v>1.039325284394671</v>
+        <v>1.023128591413381</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.045658919105032</v>
+        <v>1.020566097377184</v>
       </c>
       <c r="N24">
-        <v>1.034525769257265</v>
+        <v>1.01369760811693</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028542020812752</v>
+        <v>0.9932395184342088</v>
       </c>
       <c r="D25">
-        <v>1.037341681550372</v>
+        <v>1.016452534700672</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.044018687040146</v>
+        <v>1.015162362792012</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033766540683544</v>
+        <v>1.045521789241166</v>
       </c>
       <c r="J25">
-        <v>1.034178879093428</v>
+        <v>1.017996561568976</v>
       </c>
       <c r="K25">
-        <v>1.04038937363632</v>
+        <v>1.028800704239501</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.047045609375302</v>
+        <v>1.027529775536808</v>
       </c>
       <c r="N25">
-        <v>1.035647531723716</v>
+        <v>1.019442233452241</v>
       </c>
     </row>
   </sheetData>
